--- a/projeto 2/ifood_teste.xlsx
+++ b/projeto 2/ifood_teste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\2º semestre\Ciência dos Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesle\Desktop\Insper\Ciência dos dados\DataScience\projeto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1013,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C925CB-877B-4AFD-AD72-139BB4C4B792}">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B203"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,15 +1025,16 @@
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1121,7 +1122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2635,5 +2636,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>